--- a/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Serviceのクラス仕様書(exampleService).xlsx
+++ b/020-内部_プログラミング設計/022-クラス仕様書/テンプレート/Serviceのクラス仕様書(exampleService).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7099FE8-0385-4629-805B-DCFC4459F1A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87A271C-1D28-457C-8A29-F4B55738A702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -70,9 +70,6 @@
   </si>
   <si>
     <t>クラス名</t>
-  </si>
-  <si>
-    <t>-</t>
   </si>
   <si>
     <t>名称</t>
@@ -172,6 +169,10 @@
   </si>
   <si>
     <t>処理を行うServiceクラスです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>-</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -905,7 +906,7 @@
   <dimension ref="A1:IX19"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:BI4"/>
+      <selection sqref="A1:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.453125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -936,7 +937,7 @@
       <c r="P1" s="34"/>
       <c r="Q1" s="34"/>
       <c r="R1" s="35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S1" s="35"/>
       <c r="T1" s="35"/>
@@ -1533,7 +1534,7 @@
       <c r="E4" s="37"/>
       <c r="F4" s="37"/>
       <c r="G4" s="38" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="38"/>
       <c r="I4" s="38"/>
@@ -1657,7 +1658,7 @@
     </row>
     <row r="6" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="37"/>
@@ -1665,7 +1666,7 @@
       <c r="E6" s="37"/>
       <c r="F6" s="37"/>
       <c r="G6" s="38" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
@@ -1690,7 +1691,7 @@
       <c r="AB6" s="38"/>
       <c r="AC6" s="38"/>
       <c r="AD6" s="37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE6" s="37"/>
       <c r="AF6" s="37"/>
@@ -1698,7 +1699,7 @@
       <c r="AH6" s="37"/>
       <c r="AI6" s="37"/>
       <c r="AJ6" s="38" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="AK6" s="38"/>
       <c r="AL6" s="38"/>
@@ -1728,7 +1729,7 @@
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="37"/>
       <c r="C8" s="37"/>
@@ -1740,7 +1741,7 @@
       <c r="I8" s="37"/>
       <c r="J8" s="37"/>
       <c r="K8" s="37" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L8" s="37"/>
       <c r="M8" s="37"/>
@@ -1752,7 +1753,7 @@
       <c r="S8" s="37"/>
       <c r="T8" s="37"/>
       <c r="U8" s="37" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="V8" s="37"/>
       <c r="W8" s="37"/>
@@ -1764,7 +1765,7 @@
       <c r="AC8" s="37"/>
       <c r="AD8" s="37"/>
       <c r="AE8" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AF8" s="37"/>
       <c r="AG8" s="37"/>
@@ -1776,7 +1777,7 @@
       <c r="AM8" s="37"/>
       <c r="AN8" s="37"/>
       <c r="AO8" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AP8" s="37"/>
       <c r="AQ8" s="37"/>
@@ -1990,7 +1991,7 @@
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -2562,7 +2563,7 @@
       <c r="AR1" s="34"/>
       <c r="AS1" s="34"/>
       <c r="AT1" s="35" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AU1" s="35"/>
       <c r="AV1" s="35"/>
@@ -3117,7 +3118,7 @@
     </row>
     <row r="4" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="37" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="37"/>
       <c r="C4" s="37"/>
@@ -3379,7 +3380,7 @@
     </row>
     <row r="5" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" s="37"/>
       <c r="C5" s="37"/>
@@ -3901,12 +3902,12 @@
     </row>
     <row r="7" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="48" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="48"/>
       <c r="C7" s="48"/>
       <c r="D7" s="48" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="48"/>
       <c r="F7" s="48"/>
@@ -3920,7 +3921,7 @@
       <c r="N7" s="48"/>
       <c r="O7" s="48"/>
       <c r="P7" s="48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q7" s="48"/>
       <c r="R7" s="48"/>
@@ -3937,7 +3938,7 @@
       <c r="AC7" s="48"/>
       <c r="AD7" s="48"/>
       <c r="AE7" s="48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF7" s="48"/>
       <c r="AG7" s="48"/>
@@ -4169,7 +4170,7 @@
     </row>
     <row r="8" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="45" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="46"/>
       <c r="C8" s="47"/>
@@ -4431,7 +4432,7 @@
     </row>
     <row r="9" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="49" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="49"/>
       <c r="C9" s="49"/>
@@ -4693,7 +4694,7 @@
     </row>
     <row r="10" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B10" s="41"/>
       <c r="C10" s="41"/>
@@ -4710,7 +4711,7 @@
       <c r="N10" s="41"/>
       <c r="O10" s="41"/>
       <c r="P10" s="41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="Q10" s="41"/>
       <c r="R10" s="41"/>
@@ -4727,7 +4728,7 @@
       <c r="AC10" s="41"/>
       <c r="AD10" s="41"/>
       <c r="AE10" s="41" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF10" s="41"/>
       <c r="AG10" s="41"/>
@@ -4959,7 +4960,7 @@
     </row>
     <row r="11" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B11" s="49"/>
       <c r="C11" s="49"/>
@@ -4976,7 +4977,7 @@
       <c r="N11" s="50"/>
       <c r="O11" s="50"/>
       <c r="P11" s="50" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="Q11" s="50"/>
       <c r="R11" s="50"/>
@@ -4993,7 +4994,7 @@
       <c r="AC11" s="50"/>
       <c r="AD11" s="50"/>
       <c r="AE11" s="50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AF11" s="50"/>
       <c r="AG11" s="50"/>
@@ -5485,7 +5486,7 @@
     </row>
     <row r="13" spans="1:258" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="48" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -5534,7 +5535,7 @@
       <c r="AR13" s="48"/>
       <c r="AS13" s="48"/>
       <c r="AT13" s="48" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU13" s="48"/>
       <c r="AV13" s="48"/>
@@ -13564,12 +13565,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -13578,7 +13573,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100F5656D937027614D93C88AB71AE3D10C" ma:contentTypeVersion="2" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="b60c200d0ae5f270a77b0ce61d313f15">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="75fae816-41bf-471e-909f-5205fc9f8b57" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="893732230ae29545b6addaf499a489b1" ns2:_="">
     <xsd:import namespace="75fae816-41bf-471e-909f-5205fc9f8b57"/>
@@ -13710,16 +13705,13 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94DACC66-2E68-4C7A-B35E-6653173BD294}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -13727,7 +13719,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7560E91F-1ABF-4BEF-A078-A8FA5AD9AA18}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -13743,4 +13735,13 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{15C41A43-257B-41D4-8214-E3B2119882CE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>